--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E743657-7685-46CD-8742-C1AF77E00C94}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB64B94-0DD1-440A-BD79-69F8D03CEA0D}"/>
   <bookViews>
-    <workbookView xWindow="-26145" yWindow="420" windowWidth="23190" windowHeight="15060" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="900" yWindow="270" windowWidth="19680" windowHeight="10590" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Num</t>
   </si>
@@ -59,9 +59,6 @@
     <t>UF-105</t>
   </si>
   <si>
-    <t>Coch -2</t>
-  </si>
-  <si>
     <t>UF-271</t>
   </si>
   <si>
@@ -204,13 +201,19 @@
   </si>
   <si>
     <t>Fin contr.</t>
+  </si>
+  <si>
+    <t>Expensas</t>
+  </si>
+  <si>
+    <t>Total Pagar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +350,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -702,50 +712,58 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,12 +778,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,26 +1095,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,83 +1128,94 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>80000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>80000</v>
       </c>
-      <c r="G2" s="3">
-        <v>45505</v>
-      </c>
-      <c r="H2" s="3">
-        <v>46296</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45566</v>
-      </c>
-      <c r="J2" s="3">
-        <v>45597</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7">
+        <f>+F2+G2</f>
+        <v>80000</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45474</v>
+      </c>
+      <c r="J2" s="4">
+        <v>46204</v>
+      </c>
+      <c r="K2" s="4">
         <v>45627</v>
       </c>
-      <c r="L2" s="3">
-        <v>45597</v>
-      </c>
-      <c r="M2" s="3">
-        <v>45627</v>
+      <c r="L2" s="4">
+        <v>45748</v>
+      </c>
+      <c r="M2" s="4">
+        <v>45870</v>
+      </c>
+      <c r="N2" s="4">
+        <v>45992</v>
+      </c>
+      <c r="O2" s="4">
+        <v>46113</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
@@ -1201,502 +1229,557 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H19" si="0">+F3+G3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="H3" s="3">
+        <v>45588</v>
+      </c>
+      <c r="J3" s="3">
         <v>46327</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:M3" ca="1" si="0">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:O3" ca="1" si="1">TODAY()</f>
+        <v>45588</v>
+      </c>
+      <c r="L3" s="3">
         <v>45597</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>45627</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45587</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>45587</v>
+      <c r="N3" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45588</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>45588</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7">
         <v>25000</v>
       </c>
-      <c r="F4" s="1">
-        <v>25000</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="7">
+        <v>52000</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>52000</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45139</v>
+      </c>
+      <c r="J4" s="4">
+        <v>46204</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45323</v>
+      </c>
+      <c r="L4" s="4">
         <v>45505</v>
       </c>
-      <c r="H4" s="3">
-        <v>46357</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45505</v>
-      </c>
-      <c r="J4" s="3">
-        <v>45597</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45627</v>
-      </c>
-      <c r="L4" s="3">
-        <v>45505</v>
-      </c>
-      <c r="M4" s="3">
-        <v>45505</v>
+      <c r="M4" s="4">
+        <v>45689</v>
+      </c>
+      <c r="N4" s="4">
+        <v>45870</v>
+      </c>
+      <c r="O4" s="4">
+        <v>46054</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
-        <v>179000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>179000</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="B5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7">
+        <v>110000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>382000</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>382000</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45139</v>
+      </c>
+      <c r="J5" s="4">
+        <v>46204</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45323</v>
+      </c>
+      <c r="L5" s="4">
         <v>45505</v>
       </c>
-      <c r="H5" s="3">
-        <v>46388</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45505</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45597</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45627</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45505</v>
-      </c>
-      <c r="M5" s="3">
-        <v>45505</v>
+      <c r="M5" s="4">
+        <v>45689</v>
+      </c>
+      <c r="N5" s="4">
+        <v>45870</v>
+      </c>
+      <c r="O5" s="4">
+        <v>46054</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7">
         <v>267000</v>
       </c>
-      <c r="F6" s="1">
-        <v>267000</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="7">
+        <v>470000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>470000</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45383</v>
+      </c>
+      <c r="J6" s="4">
+        <v>46447</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45566</v>
+      </c>
+      <c r="L6" s="4">
         <v>45748</v>
       </c>
-      <c r="H6" s="3">
-        <v>46419</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45748</v>
-      </c>
-      <c r="J6" s="3">
-        <v>45597</v>
-      </c>
-      <c r="K6" s="3">
-        <v>45627</v>
-      </c>
-      <c r="L6" s="3">
-        <v>45748</v>
-      </c>
-      <c r="M6" s="3">
-        <v>45748</v>
+      <c r="M6" s="4">
+        <v>45931</v>
+      </c>
+      <c r="N6" s="4">
+        <v>46113</v>
+      </c>
+      <c r="O6" s="4">
+        <v>46296</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1">
-        <v>500000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>500000</v>
-      </c>
-      <c r="G7" s="3">
-        <f ca="1">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="H7" s="3">
-        <v>46447</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" ref="I7:M7" ca="1" si="1">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="J7" s="3">
-        <v>45597</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <v>440000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>440000</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45536</v>
+      </c>
+      <c r="J7" s="4">
         <v>45627</v>
       </c>
-      <c r="L7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45587</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>45587</v>
+      <c r="K7" s="4">
+        <v>45627</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45627</v>
+      </c>
+      <c r="M7" s="4">
+        <v>45627</v>
+      </c>
+      <c r="N7" s="4">
+        <v>45627</v>
+      </c>
+      <c r="O7" s="4">
+        <v>45627</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7">
         <v>150000</v>
       </c>
-      <c r="F8" s="1">
-        <v>150000</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="7">
+        <v>315000</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>315000</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45323</v>
+      </c>
+      <c r="J8" s="4">
+        <v>46082</v>
+      </c>
+      <c r="K8" s="4">
         <v>45505</v>
       </c>
-      <c r="H8" s="3">
-        <v>46478</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45505</v>
-      </c>
-      <c r="J8" s="3">
-        <v>45597</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45627</v>
-      </c>
-      <c r="L8" s="3">
-        <v>45505</v>
-      </c>
-      <c r="M8" s="3">
-        <v>45505</v>
+      <c r="L8" s="4">
+        <v>45689</v>
+      </c>
+      <c r="M8" s="4">
+        <v>45870</v>
+      </c>
+      <c r="N8" s="4">
+        <v>45870</v>
+      </c>
+      <c r="O8" s="4">
+        <v>45870</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7">
+        <v>66000</v>
+      </c>
+      <c r="F9" s="7">
         <v>163000</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
         <v>163000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="4">
+        <v>44958</v>
+      </c>
+      <c r="J9" s="4">
+        <v>46023</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45323</v>
+      </c>
+      <c r="L9" s="4">
         <v>45689</v>
       </c>
-      <c r="H9" s="3">
-        <v>46508</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45689</v>
-      </c>
-      <c r="J9" s="3">
-        <v>45597</v>
-      </c>
-      <c r="K9" s="3">
-        <v>45627</v>
-      </c>
-      <c r="L9" s="3">
-        <v>45689</v>
-      </c>
-      <c r="M9" s="3">
-        <v>45689</v>
+      <c r="M9" s="4">
+        <v>46054</v>
+      </c>
+      <c r="N9" s="4">
+        <v>46054</v>
+      </c>
+      <c r="O9" s="4">
+        <v>46054</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1">
-        <v>133000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>133000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45596</v>
-      </c>
-      <c r="H10" s="3">
-        <v>46539</v>
-      </c>
-      <c r="I10" s="3">
-        <v>45596</v>
-      </c>
-      <c r="J10" s="3">
-        <v>45596</v>
-      </c>
-      <c r="K10" s="3">
-        <v>45596</v>
-      </c>
-      <c r="L10" s="3">
-        <v>45596</v>
-      </c>
-      <c r="M10" s="3">
-        <v>45596</v>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7">
+        <v>490000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>490000</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>490000</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>130000</v>
       </c>
-      <c r="F11" s="1">
-        <v>130000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45505</v>
-      </c>
-      <c r="H11" s="3">
-        <v>46569</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45505</v>
-      </c>
-      <c r="J11" s="3">
-        <v>45505</v>
-      </c>
-      <c r="K11" s="3">
-        <v>45505</v>
-      </c>
-      <c r="L11" s="3">
-        <v>45505</v>
-      </c>
-      <c r="M11" s="3">
-        <v>45505</v>
+      <c r="F11" s="7">
+        <v>255000</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>255000</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45352</v>
+      </c>
+      <c r="J11" s="4">
+        <v>46419</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45536</v>
+      </c>
+      <c r="L11" s="4">
+        <v>45717</v>
+      </c>
+      <c r="M11" s="4">
+        <v>45901</v>
+      </c>
+      <c r="N11" s="4">
+        <v>46082</v>
+      </c>
+      <c r="O11" s="4">
+        <v>46266</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
         <v>100000</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>100000</v>
       </c>
-      <c r="G12" s="3">
-        <v>45444</v>
-      </c>
-      <c r="H12" s="3">
-        <v>46600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45444</v>
-      </c>
-      <c r="J12" s="3">
-        <v>45444</v>
-      </c>
-      <c r="K12" s="3">
-        <v>45444</v>
-      </c>
-      <c r="L12" s="3">
-        <v>45444</v>
-      </c>
-      <c r="M12" s="3">
-        <v>45444</v>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45474</v>
+      </c>
+      <c r="J12" s="4">
+        <v>46508</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45658</v>
+      </c>
+      <c r="L12" s="4">
+        <v>45839</v>
+      </c>
+      <c r="M12" s="4">
+        <v>46023</v>
+      </c>
+      <c r="N12" s="4">
+        <v>46204</v>
+      </c>
+      <c r="O12" s="4">
+        <v>46388</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F13" s="1">
-        <v>400000</v>
-      </c>
-      <c r="G13" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="I13" s="3">
         <f ca="1">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="H13" s="3">
+        <v>45588</v>
+      </c>
+      <c r="J13" s="3">
         <v>46631</v>
       </c>
-      <c r="I13" s="3">
-        <f t="shared" ref="I13:M13" ca="1" si="2">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45587</v>
-      </c>
       <c r="K13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45587</v>
+        <f t="shared" ref="K13:O13" ca="1" si="2">TODAY()</f>
+        <v>45588</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45587</v>
+        <v>45588</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45588</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>45588</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1">
-        <v>170000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>170000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45777</v>
-      </c>
-      <c r="H14" s="3">
-        <v>46661</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45777</v>
-      </c>
-      <c r="J14" s="3">
-        <v>45777</v>
-      </c>
-      <c r="K14" s="3">
-        <v>45777</v>
-      </c>
-      <c r="L14" s="3">
-        <v>45777</v>
-      </c>
-      <c r="M14" s="3">
-        <v>45777</v>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7">
+        <v>30000</v>
+      </c>
+      <c r="F14" s="7">
+        <v>172000</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>172000</v>
+      </c>
+      <c r="I14" s="4">
+        <v>44652</v>
+      </c>
+      <c r="J14" s="4">
+        <v>45717</v>
+      </c>
+      <c r="K14" s="4">
+        <v>45017</v>
+      </c>
+      <c r="L14" s="4">
+        <v>45383</v>
+      </c>
+      <c r="M14" s="4">
+        <v>45748</v>
+      </c>
+      <c r="N14" s="4">
+        <v>45748</v>
+      </c>
+      <c r="O14" s="4">
+        <v>45748</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1">
         <v>150000</v>
@@ -1704,17 +1787,15 @@
       <c r="F15" s="1">
         <v>150000</v>
       </c>
-      <c r="G15" s="3">
-        <v>45505</v>
-      </c>
-      <c r="H15" s="3">
-        <v>46692</v>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>150000</v>
       </c>
       <c r="I15" s="3">
         <v>45505</v>
       </c>
       <c r="J15" s="3">
-        <v>45505</v>
+        <v>46692</v>
       </c>
       <c r="K15" s="3">
         <v>45505</v>
@@ -1725,19 +1806,25 @@
       <c r="M15" s="3">
         <v>45505</v>
       </c>
+      <c r="N15" s="3">
+        <v>45505</v>
+      </c>
+      <c r="O15" s="3">
+        <v>45505</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1">
         <v>134000</v>
@@ -1745,17 +1832,15 @@
       <c r="F16" s="1">
         <v>134000</v>
       </c>
-      <c r="G16" s="3">
-        <v>45505</v>
-      </c>
-      <c r="H16" s="3">
-        <v>46722</v>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>134000</v>
       </c>
       <c r="I16" s="3">
         <v>45505</v>
       </c>
       <c r="J16" s="3">
-        <v>45505</v>
+        <v>46722</v>
       </c>
       <c r="K16" s="3">
         <v>45505</v>
@@ -1766,19 +1851,25 @@
       <c r="M16" s="3">
         <v>45505</v>
       </c>
+      <c r="N16" s="3">
+        <v>45505</v>
+      </c>
+      <c r="O16" s="3">
+        <v>45505</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1">
         <v>120000</v>
@@ -1786,46 +1877,50 @@
       <c r="F17" s="1">
         <v>120000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="I17" s="3">
         <f ca="1">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="H17" s="3">
+        <v>45588</v>
+      </c>
+      <c r="J17" s="3">
         <v>46753</v>
       </c>
-      <c r="I17" s="3">
-        <f t="shared" ref="I17:M17" ca="1" si="3">TODAY()</f>
-        <v>45587</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45587</v>
-      </c>
       <c r="K17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45587</v>
+        <f t="shared" ref="K17:O17" ca="1" si="3">TODAY()</f>
+        <v>45588</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45587</v>
+        <v>45588</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45588</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45588</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1">
         <v>345000</v>
@@ -1833,17 +1928,15 @@
       <c r="F18" s="1">
         <v>345000</v>
       </c>
-      <c r="G18" s="3">
-        <v>45474</v>
-      </c>
-      <c r="H18" s="3">
-        <v>46784</v>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>345000</v>
       </c>
       <c r="I18" s="3">
         <v>45474</v>
       </c>
       <c r="J18" s="3">
-        <v>45474</v>
+        <v>46784</v>
       </c>
       <c r="K18" s="3">
         <v>45474</v>
@@ -1854,19 +1947,25 @@
       <c r="M18" s="3">
         <v>45474</v>
       </c>
+      <c r="N18" s="3">
+        <v>45474</v>
+      </c>
+      <c r="O18" s="3">
+        <v>45474</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="1">
         <v>1500000</v>
@@ -1874,17 +1973,15 @@
       <c r="F19" s="1">
         <v>1500000</v>
       </c>
-      <c r="G19" s="3">
-        <v>45717</v>
-      </c>
-      <c r="H19" s="3">
-        <v>46813</v>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
       </c>
       <c r="I19" s="3">
         <v>45717</v>
       </c>
       <c r="J19" s="3">
-        <v>45717</v>
+        <v>46813</v>
       </c>
       <c r="K19" s="3">
         <v>45717</v>
@@ -1893,6 +1990,12 @@
         <v>45717</v>
       </c>
       <c r="M19" s="3">
+        <v>45717</v>
+      </c>
+      <c r="N19" s="3">
+        <v>45717</v>
+      </c>
+      <c r="O19" s="3">
         <v>45717</v>
       </c>
     </row>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB64B94-0DD1-440A-BD79-69F8D03CEA0D}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC5BDEC-2BA2-43CC-90EC-C6C287DE6885}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="270" windowWidth="19680" windowHeight="10590" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="-16890" yWindow="0" windowWidth="16905" windowHeight="15585" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Num</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Pelotero</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
     <t>Gringo</t>
   </si>
   <si>
@@ -92,15 +89,9 @@
     <t>Esquina</t>
   </si>
   <si>
-    <t>RT</t>
-  </si>
-  <si>
     <t>Peluqueria</t>
   </si>
   <si>
-    <t>24 A</t>
-  </si>
-  <si>
     <t>Inquilino</t>
   </si>
   <si>
@@ -207,6 +198,42 @@
   </si>
   <si>
     <t>Total Pagar</t>
+  </si>
+  <si>
+    <t>ene-2024</t>
+  </si>
+  <si>
+    <t>ene-2025</t>
+  </si>
+  <si>
+    <t>ene-2026</t>
+  </si>
+  <si>
+    <t>Yolanda Zalazar</t>
+  </si>
+  <si>
+    <t>Edmanuel Vazquez</t>
+  </si>
+  <si>
+    <t>Cardozo</t>
+  </si>
+  <si>
+    <t>Lorena Carrizo</t>
+  </si>
+  <si>
+    <t>Norma Arevalos</t>
+  </si>
+  <si>
+    <t>via Cargo</t>
+  </si>
+  <si>
+    <t>Adriana - Guillermo</t>
+  </si>
+  <si>
+    <t>Carlos Bini</t>
+  </si>
+  <si>
+    <t>UF-456</t>
   </si>
 </sst>
 </file>
@@ -356,7 +383,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -703,16 +729,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,50 +740,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,7 +802,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1098,10 +1121,10 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -1128,85 +1151,85 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>80000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>80000</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5">
         <f>+F2+G2</f>
         <v>80000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <v>45474</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>46204</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <v>45627</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>45748</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
         <v>45870</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="6">
         <v>45992</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="6">
         <v>46113</v>
       </c>
     </row>
@@ -1214,94 +1237,95 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
         <f t="shared" ref="H3:H19" si="0">+F3+G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45588</v>
-      </c>
-      <c r="J3" s="3">
+        <v>45589</v>
+      </c>
+      <c r="J3" s="6">
         <v>46327</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:O3" ca="1" si="1">TODAY()</f>
-        <v>45588</v>
-      </c>
-      <c r="L3" s="3">
+        <v>45589</v>
+      </c>
+      <c r="L3" s="6">
         <v>45597</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>45627</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45588</v>
-      </c>
-      <c r="O3" s="3">
+        <v>45589</v>
+      </c>
+      <c r="O3" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
         <v>25000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>52000</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>52000</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>45139</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>46204</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>45323</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>45505</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>45689</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <v>45870</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <v>46054</v>
       </c>
     </row>
@@ -1309,45 +1333,45 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
         <v>110000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>382000</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>382000</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="6">
         <v>45139</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <v>46204</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>45323</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
         <v>45505</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="6">
         <v>45689</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="6">
         <v>45870</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="6">
         <v>46054</v>
       </c>
     </row>
@@ -1355,45 +1379,45 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5">
         <v>267000</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>470000</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>470000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="6">
         <v>45383</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <v>46447</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <v>45566</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
         <v>45748</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="6">
         <v>45931</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="6">
         <v>46113</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="6">
         <v>46296</v>
       </c>
     </row>
@@ -1401,43 +1425,45 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5">
         <v>440000</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>440000</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>440000</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>45536</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>45627</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>45627</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>45627</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="6">
         <v>45627</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <v>45627</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <v>45627</v>
       </c>
     </row>
@@ -1445,45 +1471,45 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
         <v>150000</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>315000</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>315000</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="6">
         <v>45323</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <v>46082</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>45505</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
         <v>45689</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="6">
         <v>45870</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="6">
         <v>45870</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="6">
         <v>45870</v>
       </c>
     </row>
@@ -1491,45 +1517,45 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5">
         <v>66000</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>163000</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>163000</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="6">
         <v>44958</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <v>46023</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <v>45323</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="6">
         <v>45689</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="6">
         <v>46054</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="6">
         <v>46054</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="6">
         <v>46054</v>
       </c>
     </row>
@@ -1537,45 +1563,45 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5">
         <v>490000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>490000</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>490000</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <v>1</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="6">
         <v>1</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="6">
         <v>1</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <v>1</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1583,45 +1609,45 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5">
         <v>130000</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>255000</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="6">
         <v>45352</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <v>46419</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <v>45536</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="6">
         <v>45717</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="6">
         <v>45901</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="6">
         <v>46082</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="6">
         <v>46266</v>
       </c>
     </row>
@@ -1629,45 +1655,45 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="7">
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
         <v>100000</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>100000</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>45474</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <v>46508</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <v>45658</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
         <v>45839</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <v>46023</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <v>46204</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="6">
         <v>46388</v>
       </c>
     </row>
@@ -1675,96 +1701,92 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5">
         <v>300000</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
         <v>300000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45588</v>
-      </c>
-      <c r="J13" s="3">
+        <v>45589</v>
+      </c>
+      <c r="J13" s="6">
         <v>46631</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" ref="K13:O13" ca="1" si="2">TODAY()</f>
-        <v>45588</v>
-      </c>
-      <c r="L13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45588</v>
-      </c>
-      <c r="M13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45588</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45588</v>
-      </c>
-      <c r="O13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>45588</v>
+      <c r="K13" s="6">
+        <v>45689</v>
+      </c>
+      <c r="L13" s="6">
+        <v>45809</v>
+      </c>
+      <c r="M13" s="6">
+        <v>45931</v>
+      </c>
+      <c r="N13" s="6">
+        <v>46054</v>
+      </c>
+      <c r="O13" s="6">
+        <v>46174</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5">
         <v>30000</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>172000</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>172000</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="6">
         <v>44652</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="6">
         <v>45717</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="6">
         <v>45017</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="6">
         <v>45383</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="6">
         <v>45748</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <v>45748</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="6">
         <v>45748</v>
       </c>
     </row>
@@ -1772,231 +1794,236 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5">
         <v>150000</v>
       </c>
-      <c r="F15" s="1">
-        <v>150000</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="F15" s="5">
+        <v>294000</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>45505</v>
-      </c>
-      <c r="J15" s="3">
-        <v>46692</v>
-      </c>
-      <c r="K15" s="3">
-        <v>45505</v>
-      </c>
-      <c r="L15" s="3">
-        <v>45505</v>
-      </c>
-      <c r="M15" s="3">
-        <v>45505</v>
-      </c>
-      <c r="N15" s="3">
-        <v>45505</v>
-      </c>
-      <c r="O15" s="3">
-        <v>45505</v>
+        <v>294000</v>
+      </c>
+      <c r="I15" s="6">
+        <v>45352</v>
+      </c>
+      <c r="J15" s="6">
+        <v>46784</v>
+      </c>
+      <c r="K15" s="6">
+        <v>45536</v>
+      </c>
+      <c r="L15" s="6">
+        <v>45717</v>
+      </c>
+      <c r="M15" s="6">
+        <v>45901</v>
+      </c>
+      <c r="N15" s="6">
+        <v>46082</v>
+      </c>
+      <c r="O15" s="6">
+        <v>46266</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1">
-        <v>134000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>134000</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5">
+        <v>75000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>281845</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>134000</v>
-      </c>
-      <c r="I16" s="3">
+        <v>281845</v>
+      </c>
+      <c r="I16" s="6">
+        <v>45108</v>
+      </c>
+      <c r="J16" s="6">
+        <v>46174</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="6">
+        <v>45474</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="6">
         <v>45505</v>
       </c>
-      <c r="J16" s="3">
-        <v>46722</v>
-      </c>
-      <c r="K16" s="3">
-        <v>45505</v>
-      </c>
-      <c r="L16" s="3">
-        <v>45505</v>
-      </c>
-      <c r="M16" s="3">
-        <v>45505</v>
-      </c>
-      <c r="N16" s="3">
-        <v>45505</v>
-      </c>
-      <c r="O16" s="3">
-        <v>45505</v>
+      <c r="O16" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5">
         <v>120000</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>120000</v>
       </c>
-      <c r="H17" s="7">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45588</v>
-      </c>
-      <c r="J17" s="3">
+        <v>45589</v>
+      </c>
+      <c r="J17" s="6">
         <v>46753</v>
       </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17:O17" ca="1" si="3">TODAY()</f>
-        <v>45588</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45588</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45588</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45588</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>45588</v>
+      <c r="K17" s="6">
+        <f t="shared" ref="K17:O17" ca="1" si="2">TODAY()</f>
+        <v>45589</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45589</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45589</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45589</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>45589</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5">
+        <v>290000</v>
+      </c>
+      <c r="F18" s="5">
         <v>345000</v>
       </c>
-      <c r="F18" s="1">
-        <v>345000</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>345000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
+        <v>45352</v>
+      </c>
+      <c r="J18" s="6">
+        <v>46419</v>
+      </c>
+      <c r="K18" s="6">
         <v>45474</v>
       </c>
-      <c r="J18" s="3">
-        <v>46784</v>
-      </c>
-      <c r="K18" s="3">
-        <v>45474</v>
-      </c>
-      <c r="L18" s="3">
-        <v>45474</v>
-      </c>
-      <c r="M18" s="3">
-        <v>45474</v>
-      </c>
-      <c r="N18" s="3">
-        <v>45474</v>
-      </c>
-      <c r="O18" s="3">
-        <v>45474</v>
+      <c r="L18" s="6">
+        <v>45597</v>
+      </c>
+      <c r="M18" s="6">
+        <v>45717</v>
+      </c>
+      <c r="N18" s="6">
+        <v>45839</v>
+      </c>
+      <c r="O18" s="6">
+        <v>45962</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5">
         <v>1500000</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="5">
         <v>1500000</v>
       </c>
-      <c r="H19" s="7">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="I19" s="3">
-        <v>45717</v>
-      </c>
-      <c r="J19" s="3">
-        <v>46813</v>
-      </c>
-      <c r="K19" s="3">
-        <v>45717</v>
-      </c>
-      <c r="L19" s="3">
-        <v>45717</v>
-      </c>
-      <c r="M19" s="3">
-        <v>45717</v>
-      </c>
-      <c r="N19" s="3">
-        <v>45717</v>
-      </c>
-      <c r="O19" s="3">
-        <v>45717</v>
+      <c r="I19" s="6">
+        <v>45536</v>
+      </c>
+      <c r="J19" s="6">
+        <v>45505</v>
+      </c>
+      <c r="K19" s="6">
+        <v>45536</v>
+      </c>
+      <c r="L19" s="6">
+        <v>45536</v>
+      </c>
+      <c r="M19" s="6">
+        <v>45536</v>
+      </c>
+      <c r="N19" s="6">
+        <v>45536</v>
+      </c>
+      <c r="O19" s="6">
+        <v>45536</v>
       </c>
     </row>
   </sheetData>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC5BDEC-2BA2-43CC-90EC-C6C287DE6885}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B6A416-FA3A-4207-8C81-1D3B1A8C4E7B}"/>
   <bookViews>
-    <workbookView xWindow="-16890" yWindow="0" windowWidth="16905" windowHeight="15585" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="300" yWindow="390" windowWidth="22995" windowHeight="15060" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Num</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>UF-456</t>
+  </si>
+  <si>
+    <t>Suipacha 221  Nuestra</t>
   </si>
 </sst>
 </file>
@@ -799,6 +802,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1120,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1258,29 +1265,25 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f ca="1">TODAY()</f>
-        <v>45589</v>
+        <v>45231</v>
       </c>
       <c r="J3" s="6">
-        <v>46327</v>
+        <v>45231</v>
       </c>
       <c r="K3" s="6">
-        <f t="shared" ref="K3:O3" ca="1" si="1">TODAY()</f>
-        <v>45589</v>
+        <v>45231</v>
       </c>
       <c r="L3" s="6">
-        <v>45597</v>
+        <v>45231</v>
       </c>
       <c r="M3" s="6">
-        <v>45627</v>
+        <v>45231</v>
       </c>
       <c r="N3" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45589</v>
+        <v>45231</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45589</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1455,16 +1458,16 @@
         <v>45627</v>
       </c>
       <c r="L7" s="6">
-        <v>45627</v>
+        <v>47453</v>
       </c>
       <c r="M7" s="6">
-        <v>45627</v>
+        <v>47453</v>
       </c>
       <c r="N7" s="6">
-        <v>45627</v>
+        <v>47453</v>
       </c>
       <c r="O7" s="6">
-        <v>45627</v>
+        <v>47453</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1723,7 +1726,7 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
@@ -1908,30 +1911,30 @@
       </c>
       <c r="I17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="J17" s="6">
         <v>46753</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:O17" ca="1" si="2">TODAY()</f>
-        <v>45589</v>
+        <f t="shared" ref="K17:O17" ca="1" si="1">TODAY()</f>
+        <v>45590</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45589</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45590</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45589</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45590</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45589</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45590</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" ca="1" si="2"/>
-        <v>45589</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45590</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B6A416-FA3A-4207-8C81-1D3B1A8C4E7B}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953D02C9-EC0C-4B5C-883E-DAD39BA40E8D}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="390" windowWidth="22995" windowHeight="15060" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -748,48 +748,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,7 +809,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1128,16 +1128,16 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="9.85546875" style="1" customWidth="1"/>
     <col min="9" max="10" width="14.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="2" customWidth="1"/>
@@ -1213,10 +1213,12 @@
       <c r="F2" s="5">
         <v>80000</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5">
+        <v>29815.119999999999</v>
+      </c>
       <c r="H2" s="5">
         <f>+F2+G2</f>
-        <v>80000</v>
+        <v>109815.12</v>
       </c>
       <c r="I2" s="6">
         <v>45474</v>
@@ -1259,10 +1261,12 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5">
+        <v>29814.57</v>
+      </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H19" si="0">+F3+G3</f>
-        <v>0</v>
+        <v>29814.57</v>
       </c>
       <c r="I3" s="6">
         <v>45231</v>
@@ -1305,10 +1309,12 @@
       <c r="F4" s="5">
         <v>52000</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>29815.05</v>
+      </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>52000</v>
+        <v>81815.05</v>
       </c>
       <c r="I4" s="6">
         <v>45139</v>
@@ -1351,10 +1357,12 @@
       <c r="F5" s="5">
         <v>382000</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>152837.71</v>
+      </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>382000</v>
+        <v>534837.71</v>
       </c>
       <c r="I5" s="6">
         <v>45139</v>
@@ -1397,10 +1405,12 @@
       <c r="F6" s="5">
         <v>470000</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>138989.76999999999</v>
+      </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>470000</v>
+        <v>608989.77</v>
       </c>
       <c r="I6" s="6">
         <v>45383</v>
@@ -1443,10 +1453,12 @@
       <c r="F7" s="5">
         <v>440000</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>194380.56</v>
+      </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>440000</v>
+        <v>634380.56000000006</v>
       </c>
       <c r="I7" s="6">
         <v>45536</v>
@@ -1489,10 +1501,12 @@
       <c r="F8" s="5">
         <v>315000</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>102375.03</v>
+      </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>315000</v>
+        <v>417375.03</v>
       </c>
       <c r="I8" s="6">
         <v>45323</v>
@@ -1535,10 +1549,12 @@
       <c r="F9" s="5">
         <v>163000</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>108000.18</v>
+      </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>163000</v>
+        <v>271000.18</v>
       </c>
       <c r="I9" s="6">
         <v>44958</v>
@@ -1579,12 +1595,14 @@
         <v>490000</v>
       </c>
       <c r="F10" s="5">
-        <v>490000</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>103275.21</v>
+      </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>490000</v>
+        <v>103275.21</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -1627,7 +1645,9 @@
       <c r="F11" s="5">
         <v>255000</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>255000</v>
@@ -1673,7 +1693,9 @@
       <c r="F12" s="5">
         <v>100000</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>100000</v>
@@ -1719,14 +1741,16 @@
       <c r="F13" s="5">
         <v>300000</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45590</v>
+        <v>45601</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
@@ -1766,7 +1790,9 @@
       <c r="F14" s="5">
         <v>172000</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>172000</v>
@@ -1812,7 +1838,9 @@
       <c r="F15" s="5">
         <v>294000</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>294000</v>
@@ -1858,7 +1886,9 @@
       <c r="F16" s="5">
         <v>281845</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
         <v>281845</v>
@@ -1904,37 +1934,39 @@
       <c r="F17" s="5">
         <v>120000</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="I17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45590</v>
+        <v>45601</v>
       </c>
       <c r="J17" s="6">
         <v>46753</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17:O17" ca="1" si="1">TODAY()</f>
-        <v>45590</v>
+        <v>45601</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45590</v>
+        <v>45601</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45590</v>
+        <v>45601</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45590</v>
+        <v>45601</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45590</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1956,7 +1988,9 @@
       <c r="F18" s="5">
         <v>345000</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>345000</v>
@@ -2002,7 +2036,9 @@
       <c r="F19" s="5">
         <v>1500000</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
         <v>1500000</v>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953D02C9-EC0C-4B5C-883E-DAD39BA40E8D}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6F8A0C2-F5D4-41BD-B795-6BD7A48B6440}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="1470" yWindow="15" windowWidth="25800" windowHeight="14985" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Num</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>ene-2024</t>
-  </si>
-  <si>
-    <t>ene-2025</t>
   </si>
   <si>
     <t>ene-2026</t>
@@ -391,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +566,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -732,7 +741,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -746,50 +755,54 @@
     <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,12 +817,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1128,10 +1137,10 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -1214,11 +1223,11 @@
         <v>80000</v>
       </c>
       <c r="G2" s="5">
-        <v>29815.119999999999</v>
-      </c>
-      <c r="H2" s="5">
+        <v>35182</v>
+      </c>
+      <c r="H2" s="8">
         <f>+F2+G2</f>
-        <v>109815.12</v>
+        <v>115182</v>
       </c>
       <c r="I2" s="6">
         <v>45474</v>
@@ -1247,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1262,32 +1271,32 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>29814.57</v>
+        <v>35181.57</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H19" si="0">+F3+G3</f>
-        <v>29814.57</v>
+        <v>35181.57</v>
       </c>
       <c r="I3" s="6">
-        <v>45231</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6">
-        <v>45231</v>
+        <v>1</v>
       </c>
       <c r="K3" s="6">
-        <v>45231</v>
+        <v>1</v>
       </c>
       <c r="L3" s="6">
-        <v>45231</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6">
-        <v>45231</v>
+        <v>1</v>
       </c>
       <c r="N3" s="6">
-        <v>45231</v>
+        <v>1</v>
       </c>
       <c r="O3" s="6">
-        <v>45231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1306,15 +1315,15 @@
       <c r="E4" s="5">
         <v>25000</v>
       </c>
-      <c r="F4" s="5">
-        <v>52000</v>
+      <c r="F4" s="8">
+        <v>52900</v>
       </c>
       <c r="G4" s="5">
-        <v>29815.05</v>
+        <v>35182.050000000003</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>81815.05</v>
+        <v>88082.05</v>
       </c>
       <c r="I4" s="6">
         <v>45139</v>
@@ -1328,7 +1337,7 @@
       <c r="L4" s="6">
         <v>45505</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>45689</v>
       </c>
       <c r="N4" s="6">
@@ -1354,15 +1363,15 @@
       <c r="E5" s="5">
         <v>110000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>382000</v>
       </c>
       <c r="G5" s="5">
-        <v>152837.71</v>
+        <v>230914.71</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>534837.71</v>
+        <v>612914.71</v>
       </c>
       <c r="I5" s="6">
         <v>45139</v>
@@ -1376,7 +1385,7 @@
       <c r="L5" s="6">
         <v>45505</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>45689</v>
       </c>
       <c r="N5" s="6">
@@ -1406,11 +1415,11 @@
         <v>470000</v>
       </c>
       <c r="G6" s="5">
-        <v>138989.76999999999</v>
+        <v>210019.77</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>608989.77</v>
+        <v>680019.77</v>
       </c>
       <c r="I6" s="6">
         <v>45383</v>
@@ -1442,44 +1451,44 @@
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>194380.56</v>
+        <v>293598.56</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>634380.56000000006</v>
+        <v>293598.56</v>
       </c>
       <c r="I7" s="6">
-        <v>45536</v>
+        <v>1</v>
       </c>
       <c r="J7" s="6">
-        <v>45627</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
-        <v>45627</v>
+        <v>1</v>
       </c>
       <c r="L7" s="6">
-        <v>47453</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6">
-        <v>47453</v>
+        <v>1</v>
       </c>
       <c r="N7" s="6">
-        <v>47453</v>
+        <v>1</v>
       </c>
       <c r="O7" s="6">
-        <v>47453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1502,11 +1511,11 @@
         <v>315000</v>
       </c>
       <c r="G8" s="5">
-        <v>102375.03</v>
+        <v>113750.03</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>417375.03</v>
+        <v>428750.03</v>
       </c>
       <c r="I8" s="6">
         <v>45323</v>
@@ -1517,7 +1526,7 @@
       <c r="K8" s="6">
         <v>45505</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="7">
         <v>45689</v>
       </c>
       <c r="M8" s="6">
@@ -1550,11 +1559,11 @@
         <v>163000</v>
       </c>
       <c r="G9" s="5">
-        <v>108000.18</v>
-      </c>
-      <c r="H9" s="5">
+        <v>120000</v>
+      </c>
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>271000.18</v>
+        <v>283000</v>
       </c>
       <c r="I9" s="6">
         <v>44958</v>
@@ -1565,7 +1574,7 @@
       <c r="K9" s="6">
         <v>45323</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>45689</v>
       </c>
       <c r="M9" s="6">
@@ -1592,38 +1601,36 @@
         <v>39</v>
       </c>
       <c r="E10" s="5">
-        <v>490000</v>
+        <v>522000</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>103275.21</v>
-      </c>
+        <v>522000</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>103275.21</v>
+        <v>522000</v>
       </c>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>45689</v>
       </c>
       <c r="J10" s="6">
-        <v>1</v>
+        <v>45809</v>
       </c>
       <c r="K10" s="6">
-        <v>1</v>
+        <v>45931</v>
       </c>
       <c r="L10" s="6">
-        <v>1</v>
+        <v>46054</v>
       </c>
       <c r="M10" s="6">
-        <v>1</v>
+        <v>46174</v>
       </c>
       <c r="N10" s="6">
-        <v>1</v>
+        <v>46296</v>
       </c>
       <c r="O10" s="6">
-        <v>1</v>
+        <v>46419</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1637,41 +1644,41 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>255000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>255000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>45352</v>
+        <v>1</v>
       </c>
       <c r="J11" s="6">
-        <v>46419</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6">
-        <v>45536</v>
+        <v>1</v>
       </c>
       <c r="L11" s="6">
-        <v>45717</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6">
-        <v>45901</v>
+        <v>1</v>
       </c>
       <c r="N11" s="6">
-        <v>46082</v>
+        <v>1</v>
       </c>
       <c r="O11" s="6">
-        <v>46266</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1733,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -1750,12 +1757,12 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45601</v>
+        <v>45670</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>45689</v>
       </c>
       <c r="L13" s="6">
@@ -1782,7 +1789,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="5">
         <v>30000</v>
@@ -1830,7 +1837,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5">
         <v>150000</v>
@@ -1878,7 +1885,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="5">
         <v>75000</v>
@@ -1905,14 +1912,15 @@
       <c r="L16" s="6">
         <v>45474</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>56</v>
+      <c r="M16" s="7">
+        <f t="shared" ref="K16:O17" ca="1" si="1">TODAY()</f>
+        <v>45670</v>
       </c>
       <c r="N16" s="6">
         <v>45505</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1943,30 +1951,30 @@
       </c>
       <c r="I17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45601</v>
+        <v>45670</v>
       </c>
       <c r="J17" s="6">
         <v>46753</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ref="K17:O17" ca="1" si="1">TODAY()</f>
-        <v>45601</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45670</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45601</v>
+        <v>45670</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45601</v>
+        <v>45670</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45601</v>
+        <v>45670</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45601</v>
+        <v>45670</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1980,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5">
         <v>290000</v>
@@ -2028,7 +2036,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5">
         <v>1500000</v>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6F8A0C2-F5D4-41BD-B795-6BD7A48B6440}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE18AB93-CA77-4AEA-8CEA-060A92E9C242}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="15" windowWidth="25800" windowHeight="14985" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>Alvarenga</t>
   </si>
   <si>
-    <t>Molina</t>
-  </si>
-  <si>
     <t>Moyano Casa</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>Suipacha 221  Nuestra</t>
+  </si>
+  <si>
+    <t>Maria</t>
   </si>
 </sst>
 </file>
@@ -815,6 +815,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1136,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,37 +1174,37 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1256,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1451,10 +1455,10 @@
         <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1598,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E10" s="5">
         <v>522000</v>
@@ -1644,41 +1648,41 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="5">
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="F11" s="5">
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>330000</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>45689</v>
       </c>
       <c r="J11" s="6">
-        <v>1</v>
+        <v>45870</v>
       </c>
       <c r="K11" s="6">
-        <v>1</v>
+        <v>46054</v>
       </c>
       <c r="L11" s="6">
-        <v>1</v>
+        <v>46235</v>
       </c>
       <c r="M11" s="6">
-        <v>1</v>
+        <v>46419</v>
       </c>
       <c r="N11" s="6">
-        <v>1</v>
+        <v>46600</v>
       </c>
       <c r="O11" s="6">
-        <v>1</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1740,7 +1744,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -1757,7 +1761,7 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
@@ -1789,7 +1793,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="5">
         <v>30000</v>
@@ -1837,7 +1841,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="5">
         <v>150000</v>
@@ -1885,7 +1889,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5">
         <v>75000</v>
@@ -1907,20 +1911,20 @@
         <v>46174</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L16" s="6">
         <v>45474</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" ref="K16:O17" ca="1" si="1">TODAY()</f>
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="N16" s="6">
         <v>45505</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1928,13 +1932,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="5">
         <v>120000</v>
@@ -1951,30 +1955,30 @@
       </c>
       <c r="I17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="J17" s="6">
         <v>46753</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45670</v>
+        <v>45681</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45670</v>
+        <v>45681</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1988,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="5">
         <v>290000</v>
@@ -2030,13 +2034,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="5">
         <v>1500000</v>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE18AB93-CA77-4AEA-8CEA-060A92E9C242}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEA3A7E-3D41-46CD-A799-52BB49BC6C54}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="20385" yWindow="-8370" windowWidth="14610" windowHeight="16305" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Num</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Inquilino</t>
   </si>
   <si>
-    <t>Fito</t>
-  </si>
-  <si>
     <t>Suipacha 221  Coch -3</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>ene-2026</t>
   </si>
   <si>
-    <t>Yolanda Zalazar</t>
-  </si>
-  <si>
     <t>Edmanuel Vazquez</t>
   </si>
   <si>
@@ -234,6 +228,15 @@
   </si>
   <si>
     <t>Maria</t>
+  </si>
+  <si>
+    <t>Ivette</t>
+  </si>
+  <si>
+    <t>Nadie</t>
+  </si>
+  <si>
+    <t>Maria Jose</t>
   </si>
 </sst>
 </file>
@@ -570,13 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,54 +758,54 @@
     <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,12 +820,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1140,11 +1139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -1174,37 +1173,37 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1212,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1229,7 +1228,7 @@
       <c r="G2" s="5">
         <v>35182</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f>+F2+G2</f>
         <v>115182</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -1308,26 +1307,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="E4" s="5">
-        <v>25000</v>
-      </c>
-      <c r="F4" s="8">
-        <v>52900</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>35182.050000000003</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>88082.05</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
         <v>45139</v>
@@ -1341,7 +1339,7 @@
       <c r="L4" s="6">
         <v>45505</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>45689</v>
       </c>
       <c r="N4" s="6">
@@ -1356,47 +1354,47 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5">
-        <v>110000</v>
-      </c>
-      <c r="F5" s="8">
-        <v>382000</v>
+        <v>650000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>650000</v>
       </c>
       <c r="G5" s="5">
         <v>230914.71</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>612914.71</v>
+        <v>880914.71</v>
       </c>
       <c r="I5" s="6">
-        <v>45139</v>
+        <v>45717</v>
       </c>
       <c r="J5" s="6">
+        <v>46813</v>
+      </c>
+      <c r="K5" s="6">
+        <v>45839</v>
+      </c>
+      <c r="L5" s="6">
+        <v>45962</v>
+      </c>
+      <c r="M5" s="6">
+        <v>46082</v>
+      </c>
+      <c r="N5" s="6">
         <v>46204</v>
       </c>
-      <c r="K5" s="6">
-        <v>45323</v>
-      </c>
-      <c r="L5" s="6">
-        <v>45505</v>
-      </c>
-      <c r="M5" s="7">
-        <v>45689</v>
-      </c>
-      <c r="N5" s="6">
-        <v>45870</v>
-      </c>
       <c r="O5" s="6">
-        <v>46054</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1404,13 +1402,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5">
         <v>267000</v>
@@ -1452,13 +1450,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1500,26 +1498,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5">
         <v>150000</v>
       </c>
       <c r="F8" s="5">
-        <v>315000</v>
+        <v>411600</v>
       </c>
       <c r="G8" s="5">
         <v>113750.03</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>428750.03</v>
+        <v>525350.03</v>
       </c>
       <c r="I8" s="6">
         <v>45323</v>
@@ -1530,7 +1528,7 @@
       <c r="K8" s="6">
         <v>45505</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <v>45689</v>
       </c>
       <c r="M8" s="6">
@@ -1548,26 +1546,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5">
         <v>66000</v>
       </c>
       <c r="F9" s="5">
-        <v>163000</v>
+        <v>447500</v>
       </c>
       <c r="G9" s="5">
         <v>120000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>283000</v>
+        <v>567500</v>
       </c>
       <c r="I9" s="6">
         <v>44958</v>
@@ -1578,7 +1576,7 @@
       <c r="K9" s="6">
         <v>45323</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>45689</v>
       </c>
       <c r="M9" s="6">
@@ -1596,13 +1594,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5">
         <v>522000</v>
@@ -1610,10 +1608,12 @@
       <c r="F10" s="5">
         <v>522000</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>120000</v>
+      </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>522000</v>
+        <v>642000</v>
       </c>
       <c r="I10" s="6">
         <v>45689</v>
@@ -1642,13 +1642,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5">
         <v>330000</v>
@@ -1667,22 +1667,22 @@
         <v>45689</v>
       </c>
       <c r="J11" s="6">
+        <v>46784</v>
+      </c>
+      <c r="K11" s="6">
         <v>45870</v>
       </c>
-      <c r="K11" s="6">
+      <c r="L11" s="6">
         <v>46054</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>46235</v>
       </c>
-      <c r="M11" s="6">
-        <v>46419</v>
-      </c>
       <c r="N11" s="6">
-        <v>46600</v>
+        <v>46054</v>
       </c>
       <c r="O11" s="6">
-        <v>46784</v>
+        <v>46235</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1702,14 +1702,14 @@
         <v>100000</v>
       </c>
       <c r="F12" s="5">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="I12" s="6">
         <v>45474</v>
@@ -1718,7 +1718,7 @@
         <v>46508</v>
       </c>
       <c r="K12" s="6">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="L12" s="6">
         <v>45839</v>
@@ -1738,13 +1738,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -1756,17 +1756,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>352449</v>
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45681</v>
+        <v>45714</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>45689</v>
       </c>
       <c r="L13" s="6">
@@ -1787,13 +1786,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5">
         <v>30000</v>
@@ -1835,26 +1834,26 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5">
         <v>150000</v>
       </c>
       <c r="F15" s="5">
-        <v>294000</v>
+        <v>374000</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>294000</v>
+        <v>374000</v>
       </c>
       <c r="I15" s="6">
         <v>45352</v>
@@ -1865,7 +1864,7 @@
       <c r="K15" s="6">
         <v>45536</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="8">
         <v>45717</v>
       </c>
       <c r="M15" s="6">
@@ -1883,26 +1882,26 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="5">
         <v>75000</v>
       </c>
       <c r="F16" s="5">
-        <v>281845</v>
+        <v>401274</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>281845</v>
+        <v>401274</v>
       </c>
       <c r="I16" s="6">
         <v>45108</v>
@@ -1911,20 +1910,20 @@
         <v>46174</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L16" s="6">
         <v>45474</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <f t="shared" ref="K16:O17" ca="1" si="1">TODAY()</f>
-        <v>45681</v>
+        <v>45714</v>
       </c>
       <c r="N16" s="6">
         <v>45505</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1932,13 +1931,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="5">
         <v>120000</v>
@@ -1954,31 +1953,25 @@
         <v>120000</v>
       </c>
       <c r="I17" s="6">
-        <f ca="1">TODAY()</f>
-        <v>45681</v>
+        <v>45597</v>
       </c>
       <c r="J17" s="6">
-        <v>46753</v>
+        <v>46327</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45778</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45962</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>46143</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>46327</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>46327</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1986,26 +1979,26 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5">
         <v>290000</v>
       </c>
       <c r="F18" s="5">
-        <v>345000</v>
+        <v>483000</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>345000</v>
+        <v>483000</v>
       </c>
       <c r="I18" s="6">
         <v>45352</v>
@@ -2019,7 +2012,7 @@
       <c r="L18" s="6">
         <v>45597</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="8">
         <v>45717</v>
       </c>
       <c r="N18" s="6">
@@ -2034,13 +2027,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5">
         <v>1500000</v>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="330" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEA3A7E-3D41-46CD-A799-52BB49BC6C54}"/>
   <bookViews>
-    <workbookView xWindow="20385" yWindow="-8370" windowWidth="14610" windowHeight="16305" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -818,6 +818,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1760,7 +1764,7 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45714</v>
+        <v>45722</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
@@ -1916,8 +1920,8 @@
         <v>45474</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" ref="K16:O17" ca="1" si="1">TODAY()</f>
-        <v>45714</v>
+        <f t="shared" ref="M16" ca="1" si="1">TODAY()</f>
+        <v>45722</v>
       </c>
       <c r="N16" s="6">
         <v>45505</v>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE18AB93-CA77-4AEA-8CEA-060A92E9C242}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8153F6D-20B9-BF41-B01C-6D2F39AC4276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
     <sheet name="prop" sheetId="1" r:id="rId1"/>
@@ -815,10 +815,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,26 +1137,26 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="2" customWidth="1"/>
     <col min="12" max="12" width="15" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,7 +1203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1255,7 +1251,7 @@
         <v>46113</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1351,7 +1347,7 @@
         <v>46054</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1399,7 +1395,7 @@
         <v>46054</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1447,7 +1443,7 @@
         <v>46296</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1495,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1543,7 +1539,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1591,7 +1587,7 @@
         <v>46054</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1637,7 +1633,7 @@
         <v>46419</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1685,7 +1681,7 @@
         <v>46784</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1733,7 +1729,7 @@
         <v>46388</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1761,7 +1757,7 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45681</v>
+        <v>45722</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
@@ -1782,7 +1778,7 @@
         <v>46174</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1830,7 +1826,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1878,7 +1874,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1918,7 +1914,7 @@
       </c>
       <c r="M16" s="7">
         <f t="shared" ref="K16:O17" ca="1" si="1">TODAY()</f>
-        <v>45681</v>
+        <v>45722</v>
       </c>
       <c r="N16" s="6">
         <v>45505</v>
@@ -1927,7 +1923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1955,33 +1951,33 @@
       </c>
       <c r="I17" s="6">
         <f ca="1">TODAY()</f>
-        <v>45681</v>
+        <v>45722</v>
       </c>
       <c r="J17" s="6">
         <v>46753</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45722</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45722</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45722</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45722</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45681</v>
+        <v>45722</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2029,7 +2025,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AEA3A7E-3D41-46CD-A799-52BB49BC6C54}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B201326-CF20-417F-8071-8E17F3A487A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Num</t>
   </si>
@@ -53,9 +53,6 @@
     <t>UF-57</t>
   </si>
   <si>
-    <t>Nosotros</t>
-  </si>
-  <si>
     <t>UF-105</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>ene-2024</t>
   </si>
   <si>
-    <t>ene-2026</t>
-  </si>
-  <si>
     <t>Edmanuel Vazquez</t>
   </si>
   <si>
@@ -218,15 +212,9 @@
     <t>Adriana - Guillermo</t>
   </si>
   <si>
-    <t>Carlos Bini</t>
-  </si>
-  <si>
     <t>UF-456</t>
   </si>
   <si>
-    <t>Suipacha 221  Nuestra</t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
@@ -237,6 +225,12 @@
   </si>
   <si>
     <t>Maria Jose</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Lucas</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1138,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1146,7 @@
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
     <col min="7" max="8" width="9.85546875" style="1" customWidth="1"/>
     <col min="9" max="10" width="14.85546875" style="1" customWidth="1"/>
@@ -1174,40 +1168,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1215,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1224,38 +1218,38 @@
         <v>4</v>
       </c>
       <c r="E2" s="5">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="5">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="G2" s="5">
         <v>35182</v>
       </c>
-      <c r="H2" s="7">
-        <f>+F2+G2</f>
-        <v>115182</v>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H3" si="0">F2</f>
+        <v>100000</v>
       </c>
       <c r="I2" s="6">
         <v>45474</v>
       </c>
       <c r="J2" s="6">
-        <v>46204</v>
+        <v>46266</v>
       </c>
       <c r="K2" s="6">
-        <v>45627</v>
+        <v>45778</v>
       </c>
       <c r="L2" s="6">
-        <v>45748</v>
+        <v>45901</v>
       </c>
       <c r="M2" s="6">
-        <v>45870</v>
+        <v>46023</v>
       </c>
       <c r="N2" s="6">
-        <v>45992</v>
+        <v>46143</v>
       </c>
       <c r="O2" s="6">
-        <v>46113</v>
+        <v>46266</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1263,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -1281,8 +1275,8 @@
         <v>35181.57</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H19" si="0">+F3+G3</f>
-        <v>35181.57</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -1311,46 +1305,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F4" s="7">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>35182.57</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <f>F4</f>
+        <v>100000</v>
       </c>
       <c r="I4" s="6">
-        <v>45139</v>
+        <v>410959</v>
       </c>
       <c r="J4" s="6">
+        <v>46327</v>
+      </c>
+      <c r="K4" s="6">
+        <v>45839</v>
+      </c>
+      <c r="L4" s="6">
+        <v>45962</v>
+      </c>
+      <c r="M4" s="6">
+        <v>46082</v>
+      </c>
+      <c r="N4" s="6">
         <v>46204</v>
       </c>
-      <c r="K4" s="6">
-        <v>45323</v>
-      </c>
-      <c r="L4" s="6">
-        <v>45505</v>
-      </c>
-      <c r="M4" s="6">
-        <v>45689</v>
-      </c>
-      <c r="N4" s="6">
-        <v>45870</v>
-      </c>
       <c r="O4" s="6">
-        <v>46054</v>
+        <v>46327</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1358,13 +1353,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E5" s="5">
         <v>650000</v>
@@ -1376,7 +1371,7 @@
         <v>230914.71</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H19" si="1">+F5+G5</f>
         <v>880914.71</v>
       </c>
       <c r="I5" s="6">
@@ -1406,13 +1401,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5">
         <v>267000</v>
@@ -1424,7 +1419,7 @@
         <v>210019.77</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>680019.77</v>
       </c>
       <c r="I6" s="6">
@@ -1454,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1472,7 +1467,7 @@
         <v>293598.56</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>293598.56</v>
       </c>
       <c r="I7" s="6">
@@ -1502,13 +1497,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5">
         <v>150000</v>
@@ -1520,7 +1515,7 @@
         <v>113750.03</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>525350.03</v>
       </c>
       <c r="I8" s="6">
@@ -1550,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5">
         <v>66000</v>
@@ -1568,7 +1563,7 @@
         <v>120000</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>567500</v>
       </c>
       <c r="I9" s="6">
@@ -1598,13 +1593,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5">
         <v>522000</v>
@@ -1616,7 +1611,7 @@
         <v>120000</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>642000</v>
       </c>
       <c r="I10" s="6">
@@ -1646,13 +1641,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5">
         <v>330000</v>
@@ -1664,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>330000</v>
       </c>
       <c r="I11" s="6">
@@ -1694,13 +1689,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5">
         <v>100000</v>
@@ -1712,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
       <c r="I12" s="6">
@@ -1742,19 +1737,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
       </c>
       <c r="F13" s="5">
-        <v>300000</v>
+        <v>352500</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -1764,7 +1759,7 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45722</v>
+        <v>45754</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
@@ -1790,26 +1785,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5">
         <v>30000</v>
       </c>
       <c r="F14" s="5">
-        <v>172000</v>
+        <v>400000</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>172000</v>
+        <f t="shared" si="1"/>
+        <v>400000</v>
       </c>
       <c r="I14" s="6">
         <v>44652</v>
@@ -1838,13 +1833,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5">
         <v>150000</v>
@@ -1856,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>374000</v>
       </c>
       <c r="I15" s="6">
@@ -1886,13 +1881,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="5">
         <v>75000</v>
@@ -1904,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>401274</v>
       </c>
       <c r="I16" s="6">
@@ -1914,20 +1909,20 @@
         <v>46174</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L16" s="6">
         <v>45474</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" ref="M16" ca="1" si="1">TODAY()</f>
-        <v>45722</v>
+        <f t="shared" ref="M16" ca="1" si="2">TODAY()</f>
+        <v>45754</v>
       </c>
       <c r="N16" s="6">
         <v>45505</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>54</v>
+      <c r="O16" s="6">
+        <v>46023</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1935,13 +1930,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
         <v>120000</v>
@@ -1953,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120000</v>
       </c>
       <c r="I17" s="6">
@@ -1983,13 +1978,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5">
         <v>290000</v>
@@ -2001,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>483000</v>
       </c>
       <c r="I18" s="6">
@@ -2031,13 +2026,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5">
         <v>1500000</v>
@@ -2049,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1500000</v>
       </c>
       <c r="I19" s="6">

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1371,7 +1371,7 @@
         <v>230914.71</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H3:H19" si="1">+F5+G5</f>
+        <f t="shared" ref="H5:H19" si="1">+F5+G5</f>
         <v>880914.71</v>
       </c>
       <c r="I5" s="6">

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45754</v>
+        <v>45761</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="M16" s="6">
         <f t="shared" ref="M16" ca="1" si="2">TODAY()</f>
-        <v>45754</v>
+        <v>45761</v>
       </c>
       <c r="N16" s="6">
         <v>45505</v>

--- a/AlquileresProp/prop2.xlsx
+++ b/AlquileresProp/prop2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Web-HTML-CSS/AlquileresProp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B201326-CF20-417F-8071-8E17F3A487A6}"/>
+  <xr:revisionPtr revIDLastSave="522" documentId="8_{FFF513E0-E78C-42C4-903D-ACBD4A64A7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E249665B-3BD9-4BE9-932E-ABD114DDD21B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
+    <workbookView xWindow="20370" yWindow="-8490" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{EC0853A1-0791-4A1E-BD94-45A685C9CC8F}"/>
   </bookViews>
   <sheets>
-    <sheet name="prop" sheetId="1" r:id="rId1"/>
+    <sheet name="PROPIEDADES" sheetId="1" r:id="rId1"/>
+    <sheet name="ACTUALIZACIONES" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
   <si>
     <t>Num</t>
   </si>
@@ -92,12 +93,6 @@
     <t>Inquilino</t>
   </si>
   <si>
-    <t>Suipacha 221  Coch -3</t>
-  </si>
-  <si>
-    <t>Suipacha 221  Coch -2</t>
-  </si>
-  <si>
     <t>suipacha 644  PB D</t>
   </si>
   <si>
@@ -191,9 +186,6 @@
     <t>Total Pagar</t>
   </si>
   <si>
-    <t>ene-2024</t>
-  </si>
-  <si>
     <t>Edmanuel Vazquez</t>
   </si>
   <si>
@@ -221,9 +213,6 @@
     <t>Ivette</t>
   </si>
   <si>
-    <t>Nadie</t>
-  </si>
-  <si>
     <t>Maria Jose</t>
   </si>
   <si>
@@ -231,12 +220,93 @@
   </si>
   <si>
     <t>Lucas</t>
+  </si>
+  <si>
+    <t>PT Alem  Esquina</t>
+  </si>
+  <si>
+    <t>PROPIEDAD</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Actualizado</t>
+  </si>
+  <si>
+    <t>PT - Alem  Peluqueria</t>
+  </si>
+  <si>
+    <t>PT - 13 de Diciembre 814</t>
+  </si>
+  <si>
+    <t>PT - 13 de Diciembre 815</t>
+  </si>
+  <si>
+    <t>PT - 13 de Diciembre 816</t>
+  </si>
+  <si>
+    <t>PT - 13 de Diciembre 817</t>
+  </si>
+  <si>
+    <t>RT - Moyano  Local</t>
+  </si>
+  <si>
+    <t>PT - Alem  Depto</t>
+  </si>
+  <si>
+    <t>PT - Alem  Local</t>
+  </si>
+  <si>
+    <t>PT - San Martin  Pelotero</t>
+  </si>
+  <si>
+    <t>CABA - Suipacha 644  5D</t>
+  </si>
+  <si>
+    <t>CABA - Suipacha 644  PB D</t>
+  </si>
+  <si>
+    <t>CABA - Suipacha 221  8 I</t>
+  </si>
+  <si>
+    <t>Falta</t>
+  </si>
+  <si>
+    <t>CABA - Suipacha 221  7 B</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Suipacha 221  Coch -2 105</t>
+  </si>
+  <si>
+    <t>Suipacha 221  Coch -3 57</t>
+  </si>
+  <si>
+    <t>Suipacha 221  Coch -3 12</t>
+  </si>
+  <si>
+    <t>CABA - Suipacha 221  Coch -3 12</t>
+  </si>
+  <si>
+    <t>CABA - Suipacha 221  Coch -2 105</t>
+  </si>
+  <si>
+    <t>CABA - Suipacha 221  Coch -3 57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,7 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +808,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -753,9 +823,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -812,10 +882,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C563DF8-17DD-4AC3-A07B-500DD874CD6A}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,37 +1237,37 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1209,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1257,26 +1323,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="G3" s="5">
         <v>35181.57</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -1284,34 +1350,24 @@
       <c r="J3" s="6">
         <v>1</v>
       </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1</v>
-      </c>
-      <c r="N3" s="6">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6">
-        <v>1</v>
-      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5">
         <v>100000</v>
@@ -1332,34 +1388,24 @@
       <c r="J4" s="6">
         <v>46327</v>
       </c>
-      <c r="K4" s="6">
-        <v>45839</v>
-      </c>
-      <c r="L4" s="6">
-        <v>45962</v>
-      </c>
-      <c r="M4" s="6">
-        <v>46082</v>
-      </c>
-      <c r="N4" s="6">
-        <v>46204</v>
-      </c>
-      <c r="O4" s="6">
-        <v>46327</v>
-      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5">
         <v>650000</v>
@@ -1380,47 +1426,37 @@
       <c r="J5" s="6">
         <v>46813</v>
       </c>
-      <c r="K5" s="6">
-        <v>45839</v>
-      </c>
-      <c r="L5" s="6">
-        <v>45962</v>
-      </c>
-      <c r="M5" s="6">
-        <v>46082</v>
-      </c>
-      <c r="N5" s="6">
-        <v>46204</v>
-      </c>
-      <c r="O5" s="6">
-        <v>46447</v>
-      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5">
         <v>267000</v>
       </c>
       <c r="F6" s="5">
-        <v>470000</v>
+        <v>469000</v>
       </c>
       <c r="G6" s="5">
         <v>210019.77</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>680019.77</v>
+        <v>679019.77</v>
       </c>
       <c r="I6" s="6">
         <v>45383</v>
@@ -1428,34 +1464,24 @@
       <c r="J6" s="6">
         <v>46447</v>
       </c>
-      <c r="K6" s="6">
-        <v>45566</v>
-      </c>
-      <c r="L6" s="6">
-        <v>45748</v>
-      </c>
-      <c r="M6" s="6">
-        <v>45931</v>
-      </c>
-      <c r="N6" s="6">
-        <v>46113</v>
-      </c>
-      <c r="O6" s="6">
-        <v>46296</v>
-      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1476,34 +1502,24 @@
       <c r="J7" s="6">
         <v>1</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
         <v>150000</v>
@@ -1522,36 +1538,26 @@
         <v>45323</v>
       </c>
       <c r="J8" s="6">
-        <v>46082</v>
-      </c>
-      <c r="K8" s="6">
-        <v>45505</v>
-      </c>
-      <c r="L8" s="6">
-        <v>45689</v>
-      </c>
-      <c r="M8" s="6">
-        <v>45870</v>
-      </c>
-      <c r="N8" s="6">
-        <v>45870</v>
-      </c>
-      <c r="O8" s="6">
-        <v>45870</v>
-      </c>
+        <v>46023</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5">
         <v>66000</v>
@@ -1572,34 +1578,24 @@
       <c r="J9" s="6">
         <v>46023</v>
       </c>
-      <c r="K9" s="6">
-        <v>45323</v>
-      </c>
-      <c r="L9" s="6">
-        <v>45689</v>
-      </c>
-      <c r="M9" s="6">
-        <v>46054</v>
-      </c>
-      <c r="N9" s="6">
-        <v>46054</v>
-      </c>
-      <c r="O9" s="6">
-        <v>46054</v>
-      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
+      <c r="B10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5">
         <v>522000</v>
@@ -1618,36 +1614,26 @@
         <v>45689</v>
       </c>
       <c r="J10" s="6">
-        <v>45809</v>
-      </c>
-      <c r="K10" s="6">
-        <v>45931</v>
-      </c>
-      <c r="L10" s="6">
-        <v>46054</v>
-      </c>
-      <c r="M10" s="6">
-        <v>46174</v>
-      </c>
-      <c r="N10" s="6">
-        <v>46296</v>
-      </c>
-      <c r="O10" s="6">
-        <v>46419</v>
-      </c>
+        <v>46388</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5">
         <v>330000</v>
@@ -1668,28 +1654,18 @@
       <c r="J11" s="6">
         <v>46784</v>
       </c>
-      <c r="K11" s="6">
-        <v>45870</v>
-      </c>
-      <c r="L11" s="6">
-        <v>46054</v>
-      </c>
-      <c r="M11" s="6">
-        <v>46235</v>
-      </c>
-      <c r="N11" s="6">
-        <v>46054</v>
-      </c>
-      <c r="O11" s="6">
-        <v>46235</v>
-      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1716,34 +1692,24 @@
       <c r="J12" s="6">
         <v>46508</v>
       </c>
-      <c r="K12" s="6">
-        <v>45689</v>
-      </c>
-      <c r="L12" s="6">
-        <v>45839</v>
-      </c>
-      <c r="M12" s="6">
-        <v>46023</v>
-      </c>
-      <c r="N12" s="6">
-        <v>46204</v>
-      </c>
-      <c r="O12" s="6">
-        <v>46388</v>
-      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5">
         <v>300000</v>
@@ -1759,42 +1725,32 @@
       </c>
       <c r="I13" s="6">
         <f ca="1">TODAY()</f>
-        <v>45761</v>
+        <v>45782</v>
       </c>
       <c r="J13" s="6">
         <v>46631</v>
       </c>
-      <c r="K13" s="6">
-        <v>45689</v>
-      </c>
-      <c r="L13" s="6">
-        <v>45809</v>
-      </c>
-      <c r="M13" s="6">
-        <v>45931</v>
-      </c>
-      <c r="N13" s="6">
-        <v>46054</v>
-      </c>
-      <c r="O13" s="6">
-        <v>46174</v>
-      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5">
-        <v>30000</v>
+        <v>400000</v>
       </c>
       <c r="F14" s="5">
         <v>400000</v>
@@ -1807,39 +1763,29 @@
         <v>400000</v>
       </c>
       <c r="I14" s="6">
-        <v>44652</v>
+        <v>45748</v>
       </c>
       <c r="J14" s="6">
         <v>45717</v>
       </c>
-      <c r="K14" s="6">
-        <v>45017</v>
-      </c>
-      <c r="L14" s="6">
-        <v>45383</v>
-      </c>
-      <c r="M14" s="6">
-        <v>45748</v>
-      </c>
-      <c r="N14" s="6">
-        <v>45748</v>
-      </c>
-      <c r="O14" s="6">
-        <v>45748</v>
-      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5">
         <v>150000</v>
@@ -1860,34 +1806,24 @@
       <c r="J15" s="6">
         <v>46784</v>
       </c>
-      <c r="K15" s="6">
-        <v>45536</v>
-      </c>
-      <c r="L15" s="8">
-        <v>45717</v>
-      </c>
-      <c r="M15" s="6">
-        <v>45901</v>
-      </c>
-      <c r="N15" s="6">
-        <v>46082</v>
-      </c>
-      <c r="O15" s="6">
-        <v>46266</v>
-      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>29</v>
+      <c r="B16" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" s="5">
         <v>75000</v>
@@ -1908,35 +1844,24 @@
       <c r="J16" s="6">
         <v>46174</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="6">
-        <v>45474</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" ref="M16" ca="1" si="2">TODAY()</f>
-        <v>45761</v>
-      </c>
-      <c r="N16" s="6">
-        <v>45505</v>
-      </c>
-      <c r="O16" s="6">
-        <v>46023</v>
-      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5">
         <v>120000</v>
@@ -1957,34 +1882,24 @@
       <c r="J17" s="6">
         <v>46327</v>
       </c>
-      <c r="K17" s="6">
-        <v>45778</v>
-      </c>
-      <c r="L17" s="6">
-        <v>45962</v>
-      </c>
-      <c r="M17" s="6">
-        <v>46143</v>
-      </c>
-      <c r="N17" s="6">
-        <v>46327</v>
-      </c>
-      <c r="O17" s="6">
-        <v>46327</v>
-      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
+      <c r="B18" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5">
         <v>290000</v>
@@ -2005,47 +1920,38 @@
       <c r="J18" s="6">
         <v>46419</v>
       </c>
-      <c r="K18" s="6">
-        <v>45474</v>
-      </c>
-      <c r="L18" s="6">
-        <v>45597</v>
-      </c>
-      <c r="M18" s="8">
-        <v>45717</v>
-      </c>
-      <c r="N18" s="6">
-        <v>45839</v>
-      </c>
-      <c r="O18" s="6">
-        <v>45962</v>
-      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
-        <v>1500000</v>
+        <v>1200</v>
       </c>
       <c r="F19" s="5">
-        <v>1500000</v>
+        <f>1200*1200</f>
+        <v>1440000</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="1"/>
-        <v>1500000</v>
+        <v>1440000</v>
       </c>
       <c r="I19" s="6">
         <v>45536</v>
@@ -2053,21 +1959,18 @@
       <c r="J19" s="6">
         <v>45505</v>
       </c>
-      <c r="K19" s="6">
-        <v>45536</v>
-      </c>
-      <c r="L19" s="6">
-        <v>45536</v>
-      </c>
-      <c r="M19" s="6">
-        <v>45536</v>
-      </c>
-      <c r="N19" s="6">
-        <v>45536</v>
-      </c>
-      <c r="O19" s="6">
-        <v>45536</v>
-      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2077,4 +1980,657 @@
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D38093-3C68-4B7C-87A9-DD4ACB4F9F4C}">
+  <dimension ref="A1:C76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45536</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45717</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="8">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10">
+        <v>45778</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="10">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="10">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="10">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45717</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="10">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="10">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="10">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="10">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="10">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="10">
+        <v>45748</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="10">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="10">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="10">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="10">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="10">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="10">
+        <v>46478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="10">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="10">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="10">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="10">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="10">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="10">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="10">
+        <v>46539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="10">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="10">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="10">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="10">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="10">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="10">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="10">
+        <v>46784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="10">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="10">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="10">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="10">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="10">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="10">
+        <v>46419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="10">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="10">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="10">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="10">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="10">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="10">
+        <v>45566</v>
+      </c>
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="10">
+        <v>45748</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="10">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="10">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="10">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="10">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="10">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="10">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="10">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="10">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="10">
+        <v>46447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="10">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="10">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="10">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="10">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="10">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="10">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="10">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" s="10">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="10">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="10">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="10">
+        <v>46266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>